--- a/predictors/DOMpro/pred.xlsx
+++ b/predictors/DOMpro/pred.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13340" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="2420" windowWidth="24560" windowHeight="13340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pred" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>multi</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,13 +54,77 @@
     <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>domain Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percentage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,9 +193,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,11 +481,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-945235760"/>
-        <c:axId val="-974155104"/>
+        <c:axId val="1430601904"/>
+        <c:axId val="-1199079216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-945235760"/>
+        <c:axId val="1430601904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +528,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-974155104"/>
+        <c:crossAx val="-1199079216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -468,7 +536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-974155104"/>
+        <c:axId val="-1199079216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000.0"/>
@@ -520,7 +588,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-945235760"/>
+        <c:crossAx val="1430601904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1108,11 +1176,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-518914304"/>
-        <c:axId val="-519855616"/>
+        <c:axId val="1397266480"/>
+        <c:axId val="1397302256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-518914304"/>
+        <c:axId val="1397266480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1280,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-519855616"/>
+        <c:crossAx val="1397302256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1220,7 +1288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-519855616"/>
+        <c:axId val="1397302256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -1330,7 +1398,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-518914304"/>
+        <c:crossAx val="1397266480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
@@ -2852,8 +2920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2909,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <f>SUM(D2:E2)</f>
+        <f t="shared" ref="F2:F10" si="0">SUM(D2:E2)</f>
         <v>2878</v>
       </c>
       <c r="H2" s="1">
@@ -2944,19 +3012,19 @@
         <v>42</v>
       </c>
       <c r="F3">
-        <f>SUM(D3:E3)</f>
+        <f t="shared" si="0"/>
         <v>2921</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H10" si="0">D3/31</f>
+        <f t="shared" ref="H3:H10" si="1">D3/31</f>
         <v>92.870967741935488</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">E3/7.2</f>
+        <f t="shared" ref="I3:I10" si="2">E3/7.2</f>
         <v>5.833333333333333</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J10" si="2">F3/38.2</f>
+        <f t="shared" ref="J3:J10" si="3">F3/38.2</f>
         <v>76.465968586387433</v>
       </c>
     </row>
@@ -2979,19 +3047,19 @@
         <v>76</v>
       </c>
       <c r="F4">
-        <f>SUM(D4:E4)</f>
+        <f t="shared" si="0"/>
         <v>2990</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.555555555555555</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.272251308900522</v>
       </c>
     </row>
@@ -3014,19 +3082,19 @@
         <v>202</v>
       </c>
       <c r="F5">
-        <f>SUM(D5:E5)</f>
+        <f t="shared" si="0"/>
         <v>3162</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.483870967741936</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28.055555555555554</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.774869109947645</v>
       </c>
     </row>
@@ -3049,19 +3117,19 @@
         <v>349</v>
       </c>
       <c r="F6">
-        <f>SUM(D6:E6)</f>
+        <f t="shared" si="0"/>
         <v>3366</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97.322580645161295</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.472222222222221</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.115183246073286</v>
       </c>
     </row>
@@ -3084,19 +3152,19 @@
         <v>628</v>
       </c>
       <c r="F7">
-        <f>SUM(D7:E7)</f>
+        <f t="shared" si="0"/>
         <v>3717</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.645161290322577</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87.222222222222214</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97.303664921465966</v>
       </c>
     </row>
@@ -3119,19 +3187,19 @@
         <v>682</v>
       </c>
       <c r="F8">
-        <f>SUM(D8:E8)</f>
+        <f t="shared" si="0"/>
         <v>3779</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>99.903225806451616</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94.722222222222214</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98.926701570680621</v>
       </c>
     </row>
@@ -3154,19 +3222,19 @@
         <v>715</v>
       </c>
       <c r="F9">
-        <f>SUM(D9:E9)</f>
+        <f t="shared" si="0"/>
         <v>3815</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>99.305555555555557</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.869109947643977</v>
       </c>
     </row>
@@ -3189,19 +3257,19 @@
         <v>720</v>
       </c>
       <c r="F10">
-        <f>SUM(D10:E10)</f>
+        <f t="shared" si="0"/>
         <v>3820</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>99.999999999999986</v>
       </c>
     </row>
@@ -20802,4 +20870,200 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="O1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>841</v>
+      </c>
+      <c r="D3">
+        <v>1481</v>
+      </c>
+      <c r="E3">
+        <v>0.11940000000000001</v>
+      </c>
+      <c r="F3">
+        <v>7.1499999999999994E-2</v>
+      </c>
+      <c r="G3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="H3">
+        <v>82</v>
+      </c>
+      <c r="I3">
+        <v>153</v>
+      </c>
+      <c r="J3">
+        <v>793</v>
+      </c>
+      <c r="K3">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="L3">
+        <v>9.3700000000000006E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.1477</v>
+      </c>
+      <c r="N3">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="O3">
+        <v>142</v>
+      </c>
+      <c r="P3">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>2645</v>
+      </c>
+      <c r="C4">
+        <v>701</v>
+      </c>
+      <c r="D4">
+        <v>455</v>
+      </c>
+      <c r="E4">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.82069999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>246</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="O4">
+        <v>2868</v>
+      </c>
+      <c r="P4">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>